--- a/ResultsTask1/FormTask1_18-18.xlsx
+++ b/ResultsTask1/FormTask1_18-18.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fnoardo/Documents/geoBIM/benchmark/benchmarkExe/FinalOutcomes/ResultsTask1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3626986A-EB5E-E746-A1AD-A07FE910AD13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9294F584-23A4-8948-B316-CD842AE51482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="18320" windowHeight="21140" tabRatio="204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZTVx1Z" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10304" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10327" uniqueCount="429">
   <si>
     <t>#</t>
   </si>
@@ -1283,12 +1282,150 @@
   <si>
     <t>Same as 51</t>
   </si>
+  <si>
+    <t>Dean Hintz FME Desktop 2019.2</t>
+  </si>
+  <si>
+    <t>No errors, warnings only</t>
+  </si>
+  <si>
+    <t>1.	The IFC reader does not support the following type: 'IfcRevolvedAreaSolid'. All instances of this type will be skipped
+2.	The IFC reader does not support the following type: 'IfcSweptDiskSolid'. All instances of this type will be skipped
+3.	Error encountered while copying traits to generated solids. Some solid components may be missing traits, appearances, measures or attributes
+4.	Error encountered while copying traits to generated solids. Some solid components may be missing traits, appearances, measures or attributes
+5.	Worker 54112 &gt; The IFC reader does not support the following type: 'IfcRevolvedAreaSolid'. All instances of this type will be skipped
+6.	Worker 54112 &gt; The IFC reader does not support the following type: 'IfcSweptDiskSolid'. All instances of this type will be skipped
+7.	Error encountered while copying traits to generated solids. Some solid components may be missing traits, appearances, measures or attributes
+8.	Please note that the background map is not available in the 3D mode yet</t>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>\\fs2\pserv\Projects\GeoBIM\Task1_IFC\screenshots\jovita\task1_form18_56.1.2.png</t>
+    </r>
+  </si>
+  <si>
+    <t>●	Since IfcRevolvedAreaSolid and IfcSweptDiskSolid types are not supported, we are missing one grid row of geometry units, frames 21 to 25
+●	The 5x5 grid appears, but we are missing geometry in one of these rows</t>
+  </si>
+  <si>
+    <t>It's almost immediate</t>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>instantaneous when you select the object and view more metadata in the Feature Information Window</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The object in position 23 is taller by 2 meters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Workspace can be found at \\fs2\pserv\Projects\GeoBIM\Task1_IFC\workspaces\Geometries_IFC4_measuredLength.fmw</t>
+    </r>
+  </si>
+  <si>
+    <t>●	\\fs2\pserv\Projects\GeoBIM\Task1_IFC\screenshots\jovita\task1_form18_72.1.2.png
+●	\\fs2\pserv\Projects\GeoBIM\Task1_IFC\screenshots\jovita\task1_form18_72.1.2b.png</t>
+  </si>
+  <si>
+    <t>●	Since numbers were well rounded, I could see from the min and max extents in the Feature Information Window that the object in position 23 is 2m taller than the one in position 22</t>
+  </si>
+  <si>
+    <t>●	Normals should not be changed on reading</t>
+  </si>
+  <si>
+    <t>●	On H-shaped geometries, 90 degree straight corners are rounded out on reading into FME, this occurs for positions 22 to 25</t>
+  </si>
+  <si>
+    <t>●	FME doesn’t write what it can’t read in, so warnings are:
+●	2019-11-12 11:58:23| 0.9| 0.0|WARN |The IFC reader does not support the following type: 'IfcRevolvedAreaSolid'. All instances of this type will be skipped
+●	2019-11-12 11:58:23| 0.9| 0.0|WARN |The IFC reader does not support the following type: 'IfcSweptDiskSolid'. All instances of this type will be skipped</t>
+  </si>
+  <si>
+    <t>●	\\fs2\pserv\Projects\GeoBIM\Task1_IFC\screenshots\jovita\tasl1_form18_76a.png
+●	\\fs2\pserv\Projects\GeoBIM\Task1_IFC\screenshots\jovita\tasl1_form18_76b.png</t>
+  </si>
+  <si>
+    <t>●	Export COBie schedules to Excel
+●	Update IFC through excel 
+●	Extract data subset
+●	Converting to IFC from other formats or from IFC</t>
+  </si>
+  <si>
+    <t>●	When writing IFC to IFC without any transformers, the file size goes up from 27KB to 41KB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -1316,8 +1453,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1342,6 +1484,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1355,7 +1503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1385,6 +1533,13 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19677,10 +19832,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DEDB4D-5BA7-984C-BC1B-089199D4B5AE}">
-  <dimension ref="A1:AF327"/>
+  <dimension ref="A1:AL327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B267" zoomScale="116" workbookViewId="0">
-      <selection activeCell="AB286" sqref="AB286:AD287"/>
+    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="116" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -19688,7 +19844,7 @@
     <col min="1" max="1" width="41.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -19758,8 +19914,11 @@
       <c r="W1" s="1" t="s">
         <v>388</v>
       </c>
+      <c r="AL1" s="7" t="s">
+        <v>412</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" ht="30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -19829,8 +19988,11 @@
       <c r="W2" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="AL2" s="7" t="s">
+        <v>413</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -19901,7 +20063,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -19971,8 +20133,11 @@
       <c r="W4" s="1" t="s">
         <v>389</v>
       </c>
+      <c r="AL4" s="23" t="s">
+        <v>414</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -20000,8 +20165,11 @@
         <f>HYPERLINK("https://api.typeform.com/responses/files/cf335eb7983009ba4fd2e195b0066ed4d129e030c0e41c1bee0e059c31408c6c/ErrorsWhenImportIFC4GeometriesFZK.jpg","https://api.typeform.com/responses/files/cf335eb7983009ba4fd2e195b0066ed4d129e030c0e41c1bee0e059c31408c6c/ErrorsWhenImportIFC4GeometriesFZK.jpg")</f>
         <v>https://api.typeform.com/responses/files/cf335eb7983009ba4fd2e195b0066ed4d129e030c0e41c1bee0e059c31408c6c/ErrorsWhenImportIFC4GeometriesFZK.jpg</v>
       </c>
+      <c r="AL5" s="24" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" ht="356" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -20071,8 +20239,11 @@
       <c r="W6" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="AL6" s="23" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" ht="30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -20142,8 +20313,11 @@
       <c r="W7" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="AL7" s="7" t="s">
+        <v>417</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -20214,7 +20388,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -20284,8 +20458,11 @@
       <c r="W9" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="AL9" s="7" t="s">
+        <v>417</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -20355,8 +20532,11 @@
       <c r="W10" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="AL10" s="7" t="s">
+        <v>417</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" ht="30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -20426,8 +20606,11 @@
       <c r="W11" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="AL11" s="7" t="s">
+        <v>417</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" ht="45" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" ht="45" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -20497,8 +20680,11 @@
       <c r="W12" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="AL12" s="7" t="s">
+        <v>417</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -20530,8 +20716,11 @@
       <c r="AD13" s="7" t="s">
         <v>401</v>
       </c>
+      <c r="AL13" s="24" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -20610,7 +20799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="9"/>
       <c r="C15" s="2"/>
@@ -20641,7 +20830,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -37057,7 +37246,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A289" s="4" t="s">
         <v>111</v>
       </c>
@@ -37128,7 +37317,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="290" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A290" s="4" t="s">
         <v>2</v>
       </c>
@@ -37199,7 +37388,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="291" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A291" s="4" t="s">
         <v>112</v>
       </c>
@@ -37270,12 +37459,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="292" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A292" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A293" s="4" t="s">
         <v>114</v>
       </c>
@@ -37346,7 +37535,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="294" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
         <v>115</v>
       </c>
@@ -37416,8 +37605,11 @@
       <c r="W294" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="AL294" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="295" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A295" s="4" t="s">
         <v>2</v>
       </c>
@@ -37487,8 +37679,11 @@
       <c r="W295" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="AL295" s="24" t="s">
+        <v>420</v>
+      </c>
     </row>
-    <row r="296" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A296" s="4" t="s">
         <v>116</v>
       </c>
@@ -37558,8 +37753,11 @@
       <c r="W296" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="AL296" s="24" t="s">
+        <v>419</v>
+      </c>
     </row>
-    <row r="297" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:38" ht="240" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
         <v>117</v>
       </c>
@@ -37567,8 +37765,11 @@
         <f>HYPERLINK("https://api.typeform.com/responses/files/7b0c5972c71835d3e62cb79925c56bacf12d6c33c5e9f0447bc6516a21499299/72.1.2_Solibri_H_beams.png","https://api.typeform.com/responses/files/7b0c5972c71835d3e62cb79925c56bacf12d6c33c5e9f0447bc6516a21499299/72.1.2_Solibri_H_beams.png")</f>
         <v>https://api.typeform.com/responses/files/7b0c5972c71835d3e62cb79925c56bacf12d6c33c5e9f0447bc6516a21499299/72.1.2_Solibri_H_beams.png</v>
       </c>
+      <c r="AL297" s="23" t="s">
+        <v>421</v>
+      </c>
     </row>
-    <row r="298" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
         <v>118</v>
       </c>
@@ -37638,8 +37839,11 @@
       <c r="W298" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="AL298" s="7" t="s">
+        <v>422</v>
+      </c>
     </row>
-    <row r="299" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
         <v>119</v>
       </c>
@@ -37709,8 +37913,11 @@
       <c r="W299" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="AL299" s="7" t="s">
+        <v>423</v>
+      </c>
     </row>
-    <row r="300" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
         <v>2</v>
       </c>
@@ -37781,7 +37988,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="301" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
         <v>120</v>
       </c>
@@ -37851,8 +38058,11 @@
       <c r="W301" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="AL301" s="25" t="s">
+        <v>424</v>
+      </c>
     </row>
-    <row r="302" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
         <v>121</v>
       </c>
@@ -37881,7 +38091,7 @@
         <v>https://api.typeform.com/responses/files/54baa3070412640d02c9f29456b403865b90b29fd164f6e89d13057ba15b14fe/ifcgeometriesIFC4_shapechanges_CLeoni.pdf</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
         <v>122</v>
       </c>
@@ -37952,7 +38162,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="45" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:38" ht="45" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
         <v>123</v>
       </c>
@@ -38023,7 +38233,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
         <v>124</v>
       </c>
@@ -38093,8 +38303,11 @@
       <c r="W305" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="AL305" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="306" spans="1:23" ht="45" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:38" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
         <v>125</v>
       </c>
@@ -38164,8 +38377,11 @@
       <c r="W306" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="AL306" s="23" t="s">
+        <v>425</v>
+      </c>
     </row>
-    <row r="307" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:38" ht="240" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
         <v>126</v>
       </c>
@@ -38189,8 +38405,11 @@
         <f>HYPERLINK("https://api.typeform.com/responses/files/414dd4f2c376086f07791c3aea1770fb8d173681d460bbb12c659c9b5696a647/ViewsOfIFCGeometries4_andNormals.jpg","https://api.typeform.com/responses/files/414dd4f2c376086f07791c3aea1770fb8d173681d460bbb12c659c9b5696a647/ViewsOfIFCGeometries4_andNormals.jpg")</f>
         <v>https://api.typeform.com/responses/files/414dd4f2c376086f07791c3aea1770fb8d173681d460bbb12c659c9b5696a647/ViewsOfIFCGeometries4_andNormals.jpg</v>
       </c>
+      <c r="AL307" s="23" t="s">
+        <v>426</v>
+      </c>
     </row>
-    <row r="308" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
         <v>127</v>
       </c>
@@ -38261,7 +38480,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
         <v>128</v>
       </c>
@@ -38332,7 +38551,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A310" s="4" t="s">
         <v>129</v>
       </c>
@@ -38403,7 +38622,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A311" s="4" t="s">
         <v>130</v>
       </c>
@@ -38474,7 +38693,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A312" s="4" t="s">
         <v>131</v>
       </c>
@@ -38545,7 +38764,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:38" ht="15" x14ac:dyDescent="0.15">
       <c r="A313" s="4" t="s">
         <v>132</v>
       </c>
@@ -38616,7 +38835,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="15" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:38" ht="210" x14ac:dyDescent="0.15">
       <c r="A314" s="4" t="s">
         <v>2</v>
       </c>
@@ -38686,8 +38905,11 @@
       <c r="W314" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="AL314" s="23" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="315" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A315" s="4" t="s">
         <v>133</v>
       </c>
@@ -38757,8 +38979,11 @@
       <c r="W315" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="AL315" s="7" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="316" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:38" ht="30" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
         <v>134</v>
       </c>
@@ -38779,7 +39004,7 @@
         <v>https://api.typeform.com/responses/files/221c5ae34cd18cbb6e011d8d882c7c85b513f4e54cc97b7fefb4af2b6419ffcd/FZKViewer5_1_OtherAttachmentsErrorsViewsEtc.pdf</v>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="120" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:38" ht="120" x14ac:dyDescent="0.15">
       <c r="A317" s="4" t="s">
         <v>135</v>
       </c>
@@ -38850,7 +39075,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="318" spans="1:23" ht="45" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:38" ht="45" x14ac:dyDescent="0.15">
       <c r="A318" s="4" t="s">
         <v>136</v>
       </c>
@@ -38921,7 +39146,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="319" spans="1:23" ht="60" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:38" ht="60" x14ac:dyDescent="0.15">
       <c r="A319" s="4" t="s">
         <v>137</v>
       </c>
@@ -38992,7 +39217,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="90" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:38" ht="90" x14ac:dyDescent="0.15">
       <c r="A320" s="4" t="s">
         <v>138</v>
       </c>
